--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590816.2938072963</v>
+        <v>588928.7122908958</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>155.7627868048859</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>80.370520651889</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>42.93165166918609</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>247.9966967793304</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>226.5550410134736</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6734072801179</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.45403149117956</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>203.1609600883622</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>108.8074282022295</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>253.4707374413114</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>94.59270453218366</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634318</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>83.63630303086879</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>76.1676589408917</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>36.48605375260416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>203.8423586170115</v>
+        <v>14.17096283299235</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>26.97444673954876</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>72.76043038242783</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>51.39826633162336</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2609,10 +2609,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>26.97444673954831</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523556</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>182.5616510168775</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>149.2206531069217</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373725</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789448</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1658.435818966735</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.473302026323</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>931.2076034195729</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>545.4193508213286</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>538.4738500721252</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1967.39280684973</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1614.624151579615</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.435818966735</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.30828653671404</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.746656041709</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.746656041709</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.480957434959</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>781.6927048367145</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>774.747204087511</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.746656041709</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>551.8221175621461</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>382.8223173004785</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>225.0739447330087</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>88.74503383165694</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187101</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1282.700798147047</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2046.305888383938</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1672.840130122858</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.700798147047</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.4909684781771</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>318.4909684781771</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>149.4911682165095</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>149.4911682165095</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5027,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5127,7 +5127,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1190.649741174813</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>935.9652529689266</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963249</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="X13" t="n">
-        <v>732.358329063101</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.358329063101</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>3138.955990222747</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>3446.276123502708</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>4250.687701766859</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>4530.227766985557</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P15" t="n">
-        <v>4763.091658459769</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q15" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.8400981009108</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C16" t="n">
-        <v>524.8400981009108</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>237.7764125461473</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>237.7764125461473</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247859</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247859</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>927.2811420746807</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W16" t="n">
-        <v>927.2811420746807</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X16" t="n">
-        <v>927.2811420746807</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.4885629311506</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>167.8887746690278</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710876</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
         <v>1332.091733170013</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.7300455988212</v>
+        <v>879.248276561011</v>
       </c>
       <c r="C19" t="n">
-        <v>671.7300455988212</v>
+        <v>710.3120936331042</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>560.1954542207684</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383753</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1181.939794779312</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W19" t="n">
-        <v>892.5226247423514</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X19" t="n">
-        <v>892.5226247423514</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y19" t="n">
-        <v>671.7300455988212</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>282.2470670630129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>282.2470670630129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>282.2470670630129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>282.2470670630129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
         <v>208.7516828383384</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>709.4512536188993</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045602</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X25" t="n">
-        <v>503.039646206543</v>
+        <v>429.5442619818685</v>
       </c>
       <c r="Y25" t="n">
-        <v>282.2470670630129</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6257,7 +6257,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>727.6476863320731</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>378.1030765138943</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905592</v>
+        <v>543.0423586043034</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440233</v>
+        <v>543.0423586043034</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440233</v>
+        <v>448.6865844733384</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430011</v>
+        <v>356.534356172316</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096195</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1552.246971998339</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.323349073823</v>
+        <v>1239.846662387568</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.667044318234</v>
+        <v>1006.190357631978</v>
       </c>
       <c r="X31" t="n">
-        <v>947.4383587015872</v>
+        <v>833.9616720153318</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.4066448394281</v>
+        <v>668.9299581531725</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7502131046252</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982972</v>
@@ -7330,34 +7330,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,22 +7825,22 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>28.12263706262922</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>285.1031356539336</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>32.92248665775651</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>15.83804904622852</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>91.23759968302122</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>199.623080587109</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>381.3739760657751</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>52.49733361305245</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>32.78140656352423</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>202.6010493677086</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5419964481455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>9.760100492533274</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>215.6515895712238</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>48.29528470681646</v>
+        <v>237.9666804908356</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>259.2629056590286</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>72.66061764050342</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>235.1247320049677</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>259.2629056590291</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>48.47244475314258</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>47.7137335883493</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>1.008970684779342e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26314,34 +26314,34 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
+        <v>351926.1537639382</v>
+      </c>
+      <c r="F2" t="n">
+        <v>351926.1537639382</v>
+      </c>
+      <c r="G2" t="n">
         <v>351926.1537639379</v>
       </c>
-      <c r="F2" t="n">
-        <v>351926.153763938</v>
-      </c>
-      <c r="G2" t="n">
-        <v>351926.153763938</v>
-      </c>
       <c r="H2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639383</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639382</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107424</v>
+        <v>366139.9236107428</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389283</v>
       </c>
       <c r="M2" t="n">
         <v>369468.7964389282</v>
@@ -26350,10 +26350,10 @@
         <v>369468.7964389282</v>
       </c>
       <c r="O2" t="n">
+        <v>369468.7964389283</v>
+      </c>
+      <c r="P2" t="n">
         <v>369468.7964389281</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.6053028456</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26442,19 @@
         <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,31 +26482,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-468991.0286255509</v>
+        <v>-468991.028625551</v>
       </c>
       <c r="C6" t="n">
-        <v>120976.8505889935</v>
+        <v>120976.8505889937</v>
       </c>
       <c r="D6" t="n">
-        <v>120976.8505889935</v>
+        <v>120976.8505889936</v>
       </c>
       <c r="E6" t="n">
-        <v>-287395.8162485455</v>
+        <v>-287493.2753745173</v>
       </c>
       <c r="F6" t="n">
-        <v>237764.2202283507</v>
+        <v>237666.7611023787</v>
       </c>
       <c r="G6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023784</v>
       </c>
       <c r="H6" t="n">
-        <v>237764.2202283507</v>
+        <v>237666.7611023788</v>
       </c>
       <c r="I6" t="n">
-        <v>237764.2202283507</v>
+        <v>237666.7611023786</v>
       </c>
       <c r="J6" t="n">
-        <v>61341.0010357576</v>
+        <v>61243.54190978569</v>
       </c>
       <c r="K6" t="n">
-        <v>185009.8796766064</v>
+        <v>184991.3859386729</v>
       </c>
       <c r="L6" t="n">
-        <v>216817.3889898448</v>
+        <v>216817.3889898447</v>
       </c>
       <c r="M6" t="n">
-        <v>92359.28055687447</v>
+        <v>92359.28055687457</v>
       </c>
       <c r="N6" t="n">
         <v>227160.2957907116</v>
       </c>
       <c r="O6" t="n">
-        <v>227160.2957907115</v>
+        <v>227160.2957907117</v>
       </c>
       <c r="P6" t="n">
         <v>182997.6904878659</v>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108341</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>258.0213832159091</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>247.3817378182459</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>113.2392371726091</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>38.52630155726064</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>156.178800650007</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.11076274067705</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>10.74592769735742</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>22.54869530067498</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>65.608284606742</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>95.77023127610161</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>40.37291726015459</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866297</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>235.2160519941539</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.3855385946888</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>492.1965505854582</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>343.3468637082227</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,16 +36683,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>222.9314639777532</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>241.8130382709604</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412276</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043199</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>406.7164955186337</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>691.7983531162413</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.4075125679591</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>282.0391115195485</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
